--- a/biology/Zoologie/Arauchemus_graudo/Arauchemus_graudo.xlsx
+++ b/biology/Zoologie/Arauchemus_graudo/Arauchemus_graudo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arauchemus graudo est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arauchemus graudo est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Rio Grande do Sul au Brésil[1],[2]. Elle se rencontre vers São Francisco de Paula.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Rio Grande do Sul au Brésil,. Elle se rencontre vers São Francisco de Paula.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 6,3 mm et la femelle paratype 7,5 mm, les mâles mesurent de 4,5 à 7,6 mm et les femelles de 6,2 à 7,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 6,3 mm et la femelle paratype 7,5 mm, les mâles mesurent de 4,5 à 7,6 mm et les femelles de 6,2 à 7,7 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ott &amp; Brescovit, 2012 : Arauchemus, a new spider genus of the Echemus group (Araneae : Gnaphosidae : Echeminae) from Araucaria Forest areas in southern Brazil, with notes on habitat preferences and phenology. Zootaxa, no 3339, p. 44–56.</t>
         </is>
